--- a/property/testcase.xlsx
+++ b/property/testcase.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12015" windowHeight="4215"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11340" windowHeight="4065" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
+  <oleSize ref="A1:H3"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
   <si>
     <t>rganization Name</t>
   </si>
@@ -62,6 +63,30 @@
   </si>
   <si>
     <t>prad</t>
+  </si>
+  <si>
+    <t>kalki</t>
+  </si>
+  <si>
+    <t>mvt</t>
+  </si>
+  <si>
+    <t>madars</t>
+  </si>
+  <si>
+    <t>Banking</t>
+  </si>
+  <si>
+    <t>Communications</t>
+  </si>
+  <si>
+    <t>Education</t>
+  </si>
+  <si>
+    <t>Energy</t>
+  </si>
+  <si>
+    <t>ranemad</t>
   </si>
 </sst>
 </file>
@@ -399,7 +424,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -482,4 +507,56 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" customFormat="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/property/testcase.xlsx
+++ b/property/testcase.xlsx
@@ -514,7 +514,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
